--- a/12/2/Índice de Incertidumbre de Política Económica 1997 a 2021 - Mensual.xlsx
+++ b/12/2/Índice de Incertidumbre de Política Económica 1997 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>Serie</t>
   </si>
@@ -920,6 +920,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8041,6 +8044,9 @@
       <c r="F294">
         <v>171.2</v>
       </c>
+      <c r="G294">
+        <v>371.9</v>
+      </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
@@ -8058,22 +8064,48 @@
       <c r="F295">
         <v>124.3</v>
       </c>
+      <c r="G295">
+        <v>339.9</v>
+      </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>301</v>
       </c>
       <c r="C296">
-        <v>505</v>
+        <v>505.6</v>
       </c>
       <c r="D296">
-        <v>184.5</v>
+        <v>182.2</v>
       </c>
       <c r="E296">
-        <v>186.9</v>
+        <v>197.4</v>
       </c>
       <c r="F296">
-        <v>115.7</v>
+        <v>178.6</v>
+      </c>
+      <c r="G296">
+        <v>313.1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>302</v>
+      </c>
+      <c r="C297">
+        <v>605.2</v>
+      </c>
+      <c r="D297">
+        <v>153.5</v>
+      </c>
+      <c r="E297">
+        <v>150.3</v>
+      </c>
+      <c r="F297">
+        <v>172.3</v>
+      </c>
+      <c r="G297">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índice de Incertidumbre de Política Económica 1997 a 2021 - Mensual.xlsx
+++ b/12/2/Índice de Incertidumbre de Política Económica 1997 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>Serie</t>
   </si>
@@ -923,6 +923,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8093,19 +8096,36 @@
         <v>302</v>
       </c>
       <c r="C297">
-        <v>605.2</v>
+        <v>592.8</v>
       </c>
       <c r="D297">
-        <v>153.5</v>
+        <v>157.3</v>
       </c>
       <c r="E297">
-        <v>150.3</v>
+        <v>190.7</v>
       </c>
       <c r="F297">
-        <v>172.3</v>
+        <v>175.8</v>
       </c>
       <c r="G297">
         <v>215</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>303</v>
+      </c>
+      <c r="C298">
+        <v>358.4</v>
+      </c>
+      <c r="D298">
+        <v>177.9</v>
+      </c>
+      <c r="E298">
+        <v>215.4</v>
+      </c>
+      <c r="F298">
+        <v>180.2</v>
       </c>
     </row>
   </sheetData>
